--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/multi-channel-time-series.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/multi-channel-time-series.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822781BE-6964-4E7A-B80F-87ED7C824E97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90411FEF-31AA-4420-8411-57FAD9051C8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="126">
   <si>
     <t/>
   </si>
@@ -225,26 +225,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dimensionOrder</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -256,14 +240,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/PixelType#</t>
   </si>
   <si>
@@ -332,34 +308,6 @@
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/AcquisitionMode#</t>
   </si>
   <si>
-    <t>[bindata:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:-2147483648]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -445,6 +393,82 @@
   </si>
   <si>
     <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/multi-channel-time-series/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/multi-channel-time-series/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/multi-channel-time-series/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata9</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -848,18 +872,18 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -875,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -883,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,7 +915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -899,7 +923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -907,7 +931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -915,7 +939,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -923,36 +947,60 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -968,18 +1016,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -999,7 +1047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1011,7 +1059,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1029,7 +1077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1049,21 +1097,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1078,20 +1126,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1102,7 +1150,7 @@
         <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>38</v>
@@ -1129,7 +1177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1145,7 +1193,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1154,48 +1202,48 @@
         <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -1213,24 +1261,24 @@
         <v>20</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -1248,85 +1296,85 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1342,16 +1390,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +1413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1373,7 +1421,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1385,7 +1433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1399,26 +1447,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1433,42 +1481,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1479,9 +1527,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -1499,17 +1547,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.8984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1526,7 +1574,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1535,7 +1583,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1550,7 +1598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1564,144 +1612,144 @@
         <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E12" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E14" s="1">
         <v>576</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/multi-channel-time-series.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/multi-channel-time-series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90411FEF-31AA-4420-8411-57FAD9051C8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1E9D3F-A771-442E-A187-9D48A86241AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="126">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
@@ -98,15 +95,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -119,15 +107,6 @@
     <t>acquisition date</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -158,18 +137,9 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -182,12 +152,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -249,58 +213,6 @@
     <t>pixelType:uint8</t>
   </si>
   <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>acquisitioMode</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -368,10 +280,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -469,6 +377,114 @@
   </si>
   <si>
     <t>bindata:bindata9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>English Attribution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -885,122 +901,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1029,89 +1045,89 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1141,45 +1157,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1195,90 +1211,90 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -1296,85 +1312,85 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1394,28 +1410,28 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1423,50 +1439,50 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1491,45 +1507,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -1551,32 +1567,32 @@
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1585,45 +1601,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1">
         <v>576</v>
@@ -1631,13 +1647,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1">
         <v>576</v>
@@ -1645,13 +1661,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1">
         <v>576</v>
@@ -1659,13 +1675,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1">
         <v>576</v>
@@ -1673,13 +1689,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1">
         <v>576</v>
@@ -1687,13 +1703,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1">
         <v>576</v>
@@ -1701,13 +1717,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1">
         <v>576</v>
@@ -1715,13 +1731,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1">
         <v>576</v>
@@ -1729,13 +1745,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1">
         <v>576</v>
@@ -1743,13 +1759,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1">
         <v>576</v>
